--- a/docs/output.xlsx
+++ b/docs/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,29 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.625</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>4.625</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4.625</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="F2" t="n">
-        <v>91.88</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Did a brilliant job conveying his thoughts
-Clear presentation!
-I get a good amount of knowledge of the topic, overall a very clear explanation on the globalization.
-It's an interesting discussion. I think the most interesting part is the disvantages of globalization. There're many informations, which I haven't heard before.
-Wonderful experience
-good 👍
-I tried pretty hard to be engaged in this discussion, but I still think this could be easy for all other people to attend if the leader and his ideas can be more organized.
+          <t xml:space="preserve">Should’ve done more about definitions
+The topic is quite difficult The leader do his best
+It was sure a very difficult topics topics discuss about. Great job though 👏
 </t>
         </is>
       </c>
@@ -511,26 +507,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.571428571428571</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="C3" t="n">
         <v>4.428571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="E3" t="n">
         <v>4.571428571428571</v>
       </c>
       <c r="F3" t="n">
-        <v>87.86</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Have a good presentation, well done
-Pronouns need to be more clear
-I have a good time.
-Although you guys thought it’s a presentation but you still done it perfectly.
+          <t xml:space="preserve">has a topic that really interesting to discuss
+The topic is interested and the leader made it even interesting and easy for us to understand
+The presentation slides are doing great
 </t>
         </is>
       </c>
@@ -542,24 +537,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>86.67</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Everything great and excellent explaining but the tone
-Good job
+          <t xml:space="preserve">Good
+We got a great talk during discussion
+Did well on explaining the topic.
+good
+He provide the information so clearly and have some little discusion make this session is not feel boring.
 </t>
         </is>
       </c>
@@ -571,27 +569,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.666666666666667</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="C5" t="n">
-        <v>3.666666666666667</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="D5" t="n">
-        <v>3.666666666666667</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>3.833333333333333</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>74.17</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">you tried
-Having more clues on the worksheet to makes members understand it more easily.
-Thx for the interesting excercise.
-Group leader need to control time
-Maybe use slides to present the idea will be more effectively compared to use an video on the internet.
+          <t xml:space="preserve">voice a bit unclear
+Nice
+The PowerPoint is clear and beautiful
 </t>
         </is>
       </c>
@@ -603,25 +599,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.2</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D6" t="n">
-        <v>4.4</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>4.2</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>86</v>
+        <v>55.71</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very good
-Well prepared with video and clear presentation!
-Very interesting teaching method, and it’s very clear
+          <t xml:space="preserve">I can see you are nervous and lack of practice, maybe next time you can put more effort in it and do it better.
+Keep up!
+actually has a good topic
+It's a funny presentation. Love it.
 </t>
         </is>
       </c>
@@ -633,53 +630,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.4</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>84.17</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">The three questions of discussion are too similar.
-Did a great job teaching about globalization
-The discussion is very interesting, and I learned a lot.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>83.75</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You can sit down
+          <t xml:space="preserve">Good job for leading the team, Information that provided so helpfull
+Could make sure that everyone has properly engaged, otherwise may finish early.
 </t>
         </is>
       </c>
